--- a/input_tool/edu_table_helper_EN.xlsx
+++ b/input_tool/edu_table_helper_EN.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C981AA-BF2C-4CE2-B226-4B57308F9738}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E9731B5-4760-4EEA-961A-408BCD1186D1}"/>
   <bookViews>
-    <workbookView xWindow="15990" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-150" yWindow="0" windowWidth="19400" windowHeight="5685" activeTab="6" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
     <sheet name="out_of_school" sheetId="3" r:id="rId2"/>
     <sheet name="ece" sheetId="4" r:id="rId3"/>
     <sheet name="level1" sheetId="5" r:id="rId4"/>
+    <sheet name="level2" sheetId="6" r:id="rId5"/>
+    <sheet name="level3" sheetId="7" r:id="rId6"/>
+    <sheet name="level4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
   <si>
     <t>tab</t>
   </si>
@@ -128,16 +131,49 @@
     <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
   </si>
   <si>
-    <t>% of children (one year before the official primary school entry age) who are attending an early childhood education programme or primary school</t>
-  </si>
-  <si>
-    <t>% of children in the relevant age group (one year before the official primary school entry age) who are attending primary school</t>
-  </si>
-  <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
     <t>% of school-aged children attending school who are at least 2 years above the intended age for grade: primary</t>
+  </si>
+  <si>
+    <t>% of children one year before primary school entry age attending early childhood education or primary school.</t>
+  </si>
+  <si>
+    <t>% of children one year before primary school entry age attending primary school.</t>
+  </si>
+  <si>
+    <t>Analysis of Children Accessing Education</t>
+  </si>
+  <si>
+    <t>Analysis of Children Not Accessing Education, OoS</t>
+  </si>
+  <si>
+    <t>Early childhood education and early enrolment</t>
+  </si>
+  <si>
+    <t>School Attendance Profile: primary</t>
+  </si>
+  <si>
+    <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending school who are at least 2 years above the intended age for grade: secondary</t>
+  </si>
+  <si>
+    <t>School Attendance Profile: intermediate -- secondary</t>
+  </si>
+  <si>
+    <t>School Attendance Profile: secondary</t>
+  </si>
+  <si>
+    <t>% of school-aged children of  secondary school age currently attending secondary school or higher</t>
+  </si>
+  <si>
+    <t>School Attendance Profile: upper secondary</t>
+  </si>
+  <si>
+    <t>% of school-aged children of upper secondary school age currently attending  upper secondary school or higher</t>
   </si>
 </sst>
 </file>
@@ -538,7 +574,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -576,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -624,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -661,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -720,7 +756,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -757,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -771,8 +807,8 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
+      <c r="G2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
@@ -780,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
@@ -798,7 +834,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -831,7 +867,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -846,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
@@ -854,8 +890,226 @@
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234059E-FF89-4231-AEDD-537A0FD72374}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF67C88-2243-4200-BD46-1196A6B1AE0E}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">

--- a/input_tool/edu_table_helper_EN.xlsx
+++ b/input_tool/edu_table_helper_EN.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E9731B5-4760-4EEA-961A-408BCD1186D1}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="0" windowWidth="19400" windowHeight="5685" activeTab="6" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="3" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1053,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
